--- a/documentation/table1.xlsx
+++ b/documentation/table1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RProjects\github\toothheart\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6E739D-55C3-483D-82FD-9C547AB616E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FE94F4-2A18-411B-9E8C-655782864152}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15675" yWindow="-16320" windowWidth="28110" windowHeight="16440" xr2:uid="{ADE7E103-274E-42AF-A174-537C8FEBC34F}"/>
+    <workbookView xWindow="17580" yWindow="-15705" windowWidth="25980" windowHeight="14385" xr2:uid="{ADE7E103-274E-42AF-A174-537C8FEBC34F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
   <si>
     <t>1-5 missing teeth</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Yes - heart attack</t>
   </si>
   <si>
-    <t>No -  heart attack</t>
-  </si>
-  <si>
     <t>Cardiovascular disease</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t/>
   </si>
   <si>
-    <t>Chi-square P Value</t>
-  </si>
-  <si>
     <t>Female</t>
   </si>
   <si>
@@ -154,6 +148,18 @@
   </si>
   <si>
     <t>Missing</t>
+  </si>
+  <si>
+    <t>1 to 5 teeth removed</t>
+  </si>
+  <si>
+    <t>6 or more teeth removed, but not all</t>
+  </si>
+  <si>
+    <t>No teeth removed</t>
+  </si>
+  <si>
+    <t>All teeth removed</t>
   </si>
 </sst>
 </file>
@@ -161,12 +167,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -187,7 +200,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -195,29 +208,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,601 +557,506 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC1547F-4FEB-40FA-9FA4-C2615748DE86}">
-  <dimension ref="A1:Y48"/>
+  <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W27" sqref="W27"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="1.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="1.7109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="1.7109375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" style="3" customWidth="1"/>
-    <col min="16" max="16" width="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="1.7109375" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="10.7109375" style="1" customWidth="1"/>
+    <col min="12" max="13" width="10.7109375" style="4" customWidth="1"/>
+    <col min="14" max="14" width="1.7109375" style="4" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="32.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="4"/>
+    <col min="19" max="21" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I2" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="L3" s="4">
+        <v>2010</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J4" s="6"/>
+      <c r="L4" s="4">
+        <v>275424</v>
+      </c>
+      <c r="O4" s="4">
+        <v>273798</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="L5" s="4">
+        <v>90023</v>
+      </c>
+      <c r="M5" s="7">
+        <f>(L5/L$4)*100</f>
+        <v>32.685241663762056</v>
+      </c>
+      <c r="N5" s="7"/>
+      <c r="O5" s="4">
+        <v>109271</v>
+      </c>
+      <c r="P5" s="7">
+        <f>(O5/O$4)*100</f>
+        <v>39.909349228263174</v>
+      </c>
+      <c r="Q5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="4" t="s">
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="L6" s="4">
+        <v>97745</v>
+      </c>
+      <c r="M6" s="7">
+        <f>(L6/L$4)*100</f>
+        <v>35.488918903218305</v>
+      </c>
+      <c r="N6" s="7"/>
+      <c r="O6" s="4">
+        <v>92422</v>
+      </c>
+      <c r="P6" s="7">
+        <f>(O6/O$4)*100</f>
+        <v>33.755542407176094</v>
+      </c>
+      <c r="Q6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="4" t="s">
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J7" s="6"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="P7" s="7"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="4">
+        <v>53718</v>
+      </c>
+      <c r="M8" s="7">
+        <f>(L8/L$4)*100</f>
+        <v>19.503746950156849</v>
+      </c>
+      <c r="N8" s="7"/>
+      <c r="O8" s="4">
+        <v>44955</v>
+      </c>
+      <c r="P8" s="7">
+        <f>(O8/O$4)*100</f>
+        <v>16.419038853461309</v>
+      </c>
+      <c r="Q8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="4" t="s">
+    </row>
+    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="P9" s="7"/>
+    </row>
+    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="P10" s="7"/>
+    </row>
+    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="P11" s="7"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="P12" s="7"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="4">
+        <v>33938</v>
+      </c>
+      <c r="M13" s="7">
+        <f>(L13/L$4)*100</f>
+        <v>12.322092482862786</v>
+      </c>
+      <c r="N13" s="7"/>
+      <c r="O13" s="4">
+        <v>27150</v>
+      </c>
+      <c r="P13" s="7">
+        <f>(O13/O$4)*100</f>
+        <v>9.9160695110994226</v>
+      </c>
+      <c r="Q13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="5" t="s">
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+      <c r="P14" s="7"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="O15" s="4">
+        <v>23361</v>
+      </c>
+      <c r="P15" s="7">
+        <f>(O15/O$4)*100</f>
+        <v>8.5322025726995818</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R15" s="4">
+        <v>5446</v>
+      </c>
+      <c r="S15" s="4">
+        <v>7072</v>
+      </c>
+      <c r="T15" s="4">
+        <v>5957</v>
+      </c>
+      <c r="U15" s="4">
+        <v>4886</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P16" s="7"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P17" s="7"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P18" s="7"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O19" s="4">
+        <v>118634</v>
+      </c>
+      <c r="P19" s="7">
+        <f t="shared" ref="P19:P21" si="0">(O19/O$4)*100</f>
+        <v>43.329023586731822</v>
+      </c>
+      <c r="Q19" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3">
-        <f>S5</f>
-        <v>109271</v>
-      </c>
-      <c r="C3" s="8">
-        <f>B3/S$4</f>
-        <v>0.39909349228263175</v>
-      </c>
-      <c r="E3" s="3">
-        <f>S6</f>
-        <v>92422</v>
-      </c>
-      <c r="F3" s="8">
-        <f>E3/S$4</f>
-        <v>0.33755542407176092</v>
-      </c>
-      <c r="H3" s="3">
-        <f>S7</f>
-        <v>44955</v>
-      </c>
-      <c r="I3" s="8">
-        <f>H3/S$4</f>
-        <v>0.1641903885346131</v>
-      </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="9">
-        <f>S8</f>
-        <v>27150</v>
-      </c>
-      <c r="L3" s="8">
-        <f>K3/S$4</f>
-        <v>9.9160695110994235E-2</v>
-      </c>
-      <c r="M3" s="8"/>
-      <c r="P3">
-        <v>2010</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>6</v>
-      </c>
-      <c r="S3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C4" s="8"/>
-      <c r="P4">
-        <v>275424</v>
-      </c>
-      <c r="S4">
-        <v>273798</v>
-      </c>
-      <c r="U4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3">
-        <f>V11</f>
-        <v>5446</v>
-      </c>
-      <c r="C5" s="8">
-        <f>B5/B$3</f>
-        <v>4.9839390140110365E-2</v>
-      </c>
-      <c r="E5" s="3">
-        <f>W11</f>
-        <v>7072</v>
-      </c>
-      <c r="F5" s="8">
-        <f>E5/E$3</f>
-        <v>7.6518577827789924E-2</v>
-      </c>
-      <c r="H5" s="3">
-        <f>X11</f>
-        <v>5957</v>
-      </c>
-      <c r="I5" s="8">
-        <f>H5/H$3</f>
-        <v>0.13251028806584361</v>
-      </c>
-      <c r="K5" s="3">
-        <f>Y11</f>
-        <v>4886</v>
-      </c>
-      <c r="L5" s="8">
-        <f>K5/K$3</f>
-        <v>0.17996316758747699</v>
-      </c>
-      <c r="P5">
-        <v>90023</v>
-      </c>
-      <c r="Q5" s="1">
-        <f>(P5/P$4)*100</f>
-        <v>32.685241663762056</v>
-      </c>
-      <c r="R5" s="1"/>
-      <c r="S5">
-        <v>109271</v>
-      </c>
-      <c r="T5" s="1">
-        <f>(S5/S$4)*100</f>
-        <v>39.909349228263174</v>
-      </c>
-      <c r="U5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="3">
-        <f>V10</f>
-        <v>103825</v>
-      </c>
-      <c r="C6" s="8">
-        <f>B6/B$3</f>
-        <v>0.95016060985988959</v>
-      </c>
-      <c r="E6" s="3">
-        <f>W10</f>
-        <v>85350</v>
-      </c>
-      <c r="F6" s="8">
-        <f>E6/E$3</f>
-        <v>0.92348142217221008</v>
-      </c>
-      <c r="H6" s="3">
-        <f>X10</f>
-        <v>38998</v>
-      </c>
-      <c r="I6" s="8">
-        <f>H6/H$3</f>
-        <v>0.86748971193415636</v>
-      </c>
-      <c r="K6" s="3">
-        <f>Y10</f>
-        <v>22264</v>
-      </c>
-      <c r="L6" s="8">
-        <f>K6/K$3</f>
-        <v>0.82003683241252301</v>
-      </c>
-      <c r="P6">
-        <v>97745</v>
-      </c>
-      <c r="Q6" s="1">
-        <f>(P6/P$4)*100</f>
-        <v>35.488918903218305</v>
-      </c>
-      <c r="R6" s="1"/>
-      <c r="S6">
-        <v>92422</v>
-      </c>
-      <c r="T6" s="1">
-        <f>(S6/S$4)*100</f>
-        <v>33.755542407176094</v>
-      </c>
-      <c r="U6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="P7">
-        <v>53718</v>
-      </c>
-      <c r="Q7" s="1">
-        <f>(P7/P$4)*100</f>
-        <v>19.503746950156849</v>
-      </c>
-      <c r="R7" s="1"/>
-      <c r="S7">
-        <v>44955</v>
-      </c>
-      <c r="T7" s="1">
-        <f>(S7/S$4)*100</f>
-        <v>16.419038853461309</v>
-      </c>
-      <c r="U7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P8">
-        <v>33938</v>
-      </c>
-      <c r="Q8" s="1">
-        <f>(P8/P$4)*100</f>
-        <v>12.322092482862786</v>
-      </c>
-      <c r="R8" s="1"/>
-      <c r="S8">
-        <v>27150</v>
-      </c>
-      <c r="T8" s="1">
-        <f>(S8/S$4)*100</f>
-        <v>9.9160695110994226</v>
-      </c>
-      <c r="U8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="T9" s="1"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="S10">
-        <v>250437</v>
-      </c>
-      <c r="T10" s="1">
-        <f>(S10/S$4)*100</f>
-        <v>91.467797427300425</v>
-      </c>
-      <c r="U10" t="s">
-        <v>8</v>
-      </c>
-      <c r="V10">
-        <v>103825</v>
-      </c>
-      <c r="W10">
-        <v>85350</v>
-      </c>
-      <c r="X10">
-        <v>38998</v>
-      </c>
-      <c r="Y10">
-        <v>22264</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="S11">
-        <v>23361</v>
-      </c>
-      <c r="T11" s="1">
-        <f>(S11/S$4)*100</f>
-        <v>8.5322025726995818</v>
-      </c>
-      <c r="U11" t="s">
-        <v>7</v>
-      </c>
-      <c r="V11">
-        <v>5446</v>
-      </c>
-      <c r="W11">
-        <v>7072</v>
-      </c>
-      <c r="X11">
-        <v>5957</v>
-      </c>
-      <c r="Y11">
-        <v>4886</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T12" s="1"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S13">
-        <v>118634</v>
-      </c>
-      <c r="T13" s="1">
-        <f t="shared" ref="T12:T15" si="0">(S13/S$4)*100</f>
-        <v>43.329023586731822</v>
-      </c>
-      <c r="U13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S14">
+      <c r="O20" s="4">
         <v>154490</v>
       </c>
-      <c r="T14" s="1">
+      <c r="P20" s="7">
         <f t="shared" si="0"/>
         <v>56.424809531114185</v>
       </c>
-      <c r="U14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="S15">
+      <c r="Q20" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21" s="4">
         <v>674</v>
       </c>
-      <c r="T15" s="1">
+      <c r="P21" s="7">
         <f t="shared" si="0"/>
         <v>0.24616688215399674</v>
       </c>
-      <c r="U15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="Q21" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U17" t="s">
+      <c r="Q25" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q26" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U19" t="s">
+      <c r="Q28" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="U20" t="s">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q29" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q34" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q35" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="U22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q37" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="U23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q38" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q39" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="U26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q40" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="U27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q41" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="U28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q43" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="U29" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q44" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="U31" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q46" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="U32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q47" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="U33" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="U34" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q49" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="U35" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q50" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="U37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q52" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="U38" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q53" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="U40" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q54" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="U41" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="U43" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="U44" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="U46" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="U47" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="U48" t="s">
-        <v>39</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K1:L1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>

--- a/documentation/table1.xlsx
+++ b/documentation/table1.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RProjects\github\toothheart\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FE94F4-2A18-411B-9E8C-655782864152}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9D65C4-6FF5-42DD-8A75-8D5D04760DA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17580" yWindow="-15705" windowWidth="25980" windowHeight="14385" xr2:uid="{ADE7E103-274E-42AF-A174-537C8FEBC34F}"/>
+    <workbookView xWindow="18615" yWindow="-14385" windowWidth="25980" windowHeight="14385" xr2:uid="{ADE7E103-274E-42AF-A174-537C8FEBC34F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,19 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
-  <si>
-    <t>1-5 missing teeth</t>
-  </si>
-  <si>
-    <t>6 or more, but not all missing teeth</t>
-  </si>
-  <si>
-    <t>All teeth missing</t>
-  </si>
-  <si>
-    <t>No missing teeth</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
   <si>
     <t>Participants</t>
   </si>
@@ -51,21 +42,9 @@
     <t>Total</t>
   </si>
   <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>Yes - heart attack</t>
-  </si>
-  <si>
     <t>Cardiovascular disease</t>
   </si>
   <si>
-    <t>No CV disease</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>Female</t>
   </si>
   <si>
@@ -147,9 +126,6 @@
     <t>BMI 30+</t>
   </si>
   <si>
-    <t>Missing</t>
-  </si>
-  <si>
     <t>1 to 5 teeth removed</t>
   </si>
   <si>
@@ -160,6 +136,30 @@
   </si>
   <si>
     <t>All teeth removed</t>
+  </si>
+  <si>
+    <t>No Cardiovascular Disease</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>noCV</t>
+  </si>
+  <si>
+    <t>Asian</t>
+  </si>
+  <si>
+    <t>Not reported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                                                                     </t>
+  </si>
+  <si>
+    <t>p&lt;0.001</t>
+  </si>
+  <si>
+    <t>Chi-Squared p-value</t>
   </si>
 </sst>
 </file>
@@ -227,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -237,11 +237,23 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -258,6 +270,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="cvdFreq"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -557,503 +582,1288 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC1547F-4FEB-40FA-9FA4-C2615748DE86}">
-  <dimension ref="A1:U54"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="1.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="14" style="9" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="1" customWidth="1"/>
+    <col min="9" max="11" width="10.7109375" style="1" customWidth="1"/>
     <col min="12" max="13" width="10.7109375" style="4" customWidth="1"/>
     <col min="14" max="14" width="1.7109375" style="4" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="32.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7" style="11" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.140625" style="4"/>
     <col min="19" max="21" width="6" style="4" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I2" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9" t="str">
+        <f>TEXT(O2, "###,###")&amp;" ("&amp;TEXT(O2/O$2, "%0.0")&amp;")"</f>
+        <v>273,798 (%100.0)</v>
+      </c>
+      <c r="D2" s="9" t="str">
+        <f>TEXT(P2, "###,###")&amp;" ("&amp;TEXT(P2/$O2, "%0.0")&amp;")"</f>
+        <v>23,912 (%8.7)</v>
+      </c>
+      <c r="E2" s="9" t="str">
+        <f>TEXT(Q2, "###,###")&amp;" ("&amp;TEXT(Q2/$O2, "%0.0")&amp;")"</f>
+        <v>250,397 (%91.5)</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="O2" s="11">
+        <v>273798</v>
+      </c>
+      <c r="P2" s="11">
+        <v>23912</v>
+      </c>
+      <c r="Q2" s="11">
+        <v>250397</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J3" s="5"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="9" t="str">
+        <f t="shared" ref="C4:C56" si="0">TEXT(O4, "###,###")&amp;" ("&amp;TEXT(O4/O$2, "%0.0")&amp;")"</f>
+        <v>104,802 (%38.3)</v>
+      </c>
+      <c r="D4" s="9" t="str">
+        <f t="shared" ref="D4" si="1">TEXT(P4, "###,###")&amp;" ("&amp;TEXT(P4/P$2, "%0.0")&amp;")"</f>
+        <v>5,328 (%22.3)</v>
+      </c>
+      <c r="E4" s="9" t="str">
+        <f t="shared" ref="E4" si="2">TEXT(Q4, "###,###")&amp;" ("&amp;TEXT(Q4/Q$2, "%0.0")&amp;")"</f>
+        <v>99,474 (%39.7)</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="11">
+        <v>104802</v>
+      </c>
+      <c r="P4" s="11">
+        <v>5328</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>99474</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>90,192 (%32.9)</v>
+      </c>
+      <c r="D5" s="9" t="str">
+        <f t="shared" ref="D5:D56" si="3">TEXT(P5, "###,###")&amp;" ("&amp;TEXT(P5/P$2, "%0.0")&amp;")"</f>
+        <v>6,968 (%29.1)</v>
+      </c>
+      <c r="E5" s="9" t="str">
+        <f t="shared" ref="E5:E56" si="4">TEXT(Q5, "###,###")&amp;" ("&amp;TEXT(Q5/Q$2, "%0.0")&amp;")"</f>
+        <v>83,224 (%33.2)</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="7"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="11">
+        <v>90192</v>
+      </c>
+      <c r="P5" s="11">
+        <v>6968</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>83224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>44,317 (%16.2)</v>
+      </c>
+      <c r="D6" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>5,901 (%24.7)</v>
+      </c>
+      <c r="E6" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>38,416 (%15.3)</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="7"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="11">
+        <v>44317</v>
+      </c>
+      <c r="P6" s="11">
+        <v>5901</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>38416</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>26,798 (%9.8)</v>
+      </c>
+      <c r="D7" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>4,842 (%20.2)</v>
+      </c>
+      <c r="E7" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>21,956 (%8.8)</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="7"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="11">
+        <v>26798</v>
+      </c>
+      <c r="P7" s="11">
+        <v>4842</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>21956</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>8,200 (%3.0)</v>
+      </c>
+      <c r="D8" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>873 (%3.7)</v>
+      </c>
+      <c r="E8" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>7,327 (%2.9)</v>
+      </c>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="11">
+        <v>8200</v>
+      </c>
+      <c r="P8" s="11">
+        <v>873</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>7327</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>155,032 (%56.6)</v>
+      </c>
+      <c r="D10" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>9,541 (%39.9)</v>
+      </c>
+      <c r="E10" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>145,491 (%58.1)</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="11">
+        <v>155032</v>
+      </c>
+      <c r="P10" s="11">
+        <v>9541</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>145491</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="L3" s="4">
-        <v>2010</v>
-      </c>
-      <c r="M3" s="4" t="s">
+      <c r="C11" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>118,784 (%43.4)</v>
+      </c>
+      <c r="D11" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>14,311 (%59.8)</v>
+      </c>
+      <c r="E11" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>104,473 (%41.7)</v>
+      </c>
+      <c r="O11" s="11">
+        <v>118784</v>
+      </c>
+      <c r="P11" s="11">
+        <v>14311</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>104473</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>493 (%0.2)</v>
+      </c>
+      <c r="D12" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>60 (%0.3)</v>
+      </c>
+      <c r="E12" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>433 (%0.2)</v>
+      </c>
+      <c r="O12" s="11">
+        <v>493</v>
+      </c>
+      <c r="P12" s="11">
+        <v>60</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>13,952 (%5.1)</v>
+      </c>
+      <c r="D14" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>1,066 (%4.5)</v>
+      </c>
+      <c r="E14" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>12,886 (%5.1)</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="O14" s="11">
+        <v>13952</v>
+      </c>
+      <c r="P14" s="11">
+        <v>1066</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>12886</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>220,384 (%80.5)</v>
+      </c>
+      <c r="D16" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>19,108 (%79.9)</v>
+      </c>
+      <c r="E16" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>201,276 (%80.4)</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="O16" s="11">
+        <v>220384</v>
+      </c>
+      <c r="P16" s="11">
+        <v>19108</v>
+      </c>
+      <c r="Q16" s="11">
+        <v>201276</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="J4" s="6"/>
-      <c r="L4" s="4">
-        <v>275424</v>
-      </c>
-      <c r="O4" s="4">
-        <v>273798</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="6"/>
-      <c r="L5" s="4">
-        <v>90023</v>
-      </c>
-      <c r="M5" s="7">
-        <f>(L5/L$4)*100</f>
-        <v>32.685241663762056</v>
-      </c>
-      <c r="N5" s="7"/>
-      <c r="O5" s="4">
-        <v>109271</v>
-      </c>
-      <c r="P5" s="7">
-        <f>(O5/O$4)*100</f>
-        <v>39.909349228263174</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="6"/>
-      <c r="L6" s="4">
-        <v>97745</v>
-      </c>
-      <c r="M6" s="7">
-        <f>(L6/L$4)*100</f>
-        <v>35.488918903218305</v>
-      </c>
-      <c r="N6" s="7"/>
-      <c r="O6" s="4">
-        <v>92422</v>
-      </c>
-      <c r="P6" s="7">
-        <f>(O6/O$4)*100</f>
-        <v>33.755542407176094</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="J7" s="6"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="P7" s="7"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L8" s="4">
-        <v>53718</v>
-      </c>
-      <c r="M8" s="7">
-        <f>(L8/L$4)*100</f>
-        <v>19.503746950156849</v>
-      </c>
-      <c r="N8" s="7"/>
-      <c r="O8" s="4">
-        <v>44955</v>
-      </c>
-      <c r="P8" s="7">
-        <f>(O8/O$4)*100</f>
-        <v>16.419038853461309</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="P9" s="7"/>
-    </row>
-    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="P10" s="7"/>
-    </row>
-    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="P11" s="7"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="P12" s="7"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" s="4">
-        <v>33938</v>
-      </c>
-      <c r="M13" s="7">
-        <f>(L13/L$4)*100</f>
-        <v>12.322092482862786</v>
-      </c>
-      <c r="N13" s="7"/>
-      <c r="O13" s="4">
-        <v>27150</v>
-      </c>
-      <c r="P13" s="7">
-        <f>(O13/O$4)*100</f>
-        <v>9.9160695110994226</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P14" s="7"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="O15" s="4">
-        <v>23361</v>
-      </c>
-      <c r="P15" s="7">
-        <f>(O15/O$4)*100</f>
-        <v>8.5322025726995818</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="R15" s="4">
-        <v>5446</v>
-      </c>
-      <c r="S15" s="4">
-        <v>7072</v>
-      </c>
-      <c r="T15" s="4">
-        <v>5957</v>
-      </c>
-      <c r="U15" s="4">
-        <v>4886</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P16" s="7"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="P17" s="7"/>
+      <c r="C17" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>20,685 (%7.6)</v>
+      </c>
+      <c r="D17" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>1,655 (%6.9)</v>
+      </c>
+      <c r="E17" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>19,030 (%7.6)</v>
+      </c>
+      <c r="O17" s="11">
+        <v>20685</v>
+      </c>
+      <c r="P17" s="11">
+        <v>1655</v>
+      </c>
+      <c r="Q17" s="11">
+        <v>19030</v>
+      </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P18" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="C18" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>13,952 (%5.1)</v>
+      </c>
+      <c r="D18" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>1,066 (%4.5)</v>
+      </c>
+      <c r="E18" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>12,886 (%5.1)</v>
+      </c>
+      <c r="O18" s="11">
+        <v>13952</v>
+      </c>
+      <c r="P18" s="11">
+        <v>1066</v>
+      </c>
+      <c r="Q18" s="11">
+        <v>12886</v>
+      </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O19" s="4">
-        <v>118634</v>
-      </c>
-      <c r="P19" s="7">
-        <f t="shared" ref="P19:P21" si="0">(O19/O$4)*100</f>
-        <v>43.329023586731822</v>
-      </c>
-      <c r="Q19" s="4" t="s">
-        <v>11</v>
+        <v>37</v>
+      </c>
+      <c r="C19" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>3,637 (%1.3)</v>
+      </c>
+      <c r="D19" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>195 (%0.8)</v>
+      </c>
+      <c r="E19" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>3,442 (%1.4)</v>
+      </c>
+      <c r="O19" s="11">
+        <v>3637</v>
+      </c>
+      <c r="P19" s="11">
+        <v>195</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>3442</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O20" s="4">
-        <v>154490</v>
-      </c>
-      <c r="P20" s="7">
-        <f t="shared" si="0"/>
-        <v>56.424809531114185</v>
-      </c>
-      <c r="Q20" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="C20" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>11,160 (%4.1)</v>
+      </c>
+      <c r="D20" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>1,440 (%6.0)</v>
+      </c>
+      <c r="E20" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>9,720 (%3.9)</v>
+      </c>
+      <c r="O20" s="11">
+        <v>11160</v>
+      </c>
+      <c r="P20" s="11">
+        <v>1440</v>
+      </c>
+      <c r="Q20" s="11">
+        <v>9720</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O21" s="4">
-        <v>674</v>
-      </c>
-      <c r="P21" s="7">
-        <f t="shared" si="0"/>
-        <v>0.24616688215399674</v>
-      </c>
-      <c r="Q21" s="4" t="s">
         <v>38</v>
+      </c>
+      <c r="C21" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>4,491 (%1.6)</v>
+      </c>
+      <c r="D21" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>448 (%1.9)</v>
+      </c>
+      <c r="E21" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>4,043 (%1.6)</v>
+      </c>
+      <c r="O21" s="11">
+        <v>4491</v>
+      </c>
+      <c r="P21" s="11">
+        <v>448</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>4043</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q23" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="C23" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>76,858 (%28.1)</v>
+      </c>
+      <c r="D23" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>3,843 (%16.1)</v>
+      </c>
+      <c r="E23" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>73,015 (%29.2)</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="O23" s="11">
+        <v>76858</v>
+      </c>
+      <c r="P23" s="11">
+        <v>3843</v>
+      </c>
+      <c r="Q23" s="11">
+        <v>73015</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q24" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="C24" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>93,919 (%34.3)</v>
+      </c>
+      <c r="D24" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>7,224 (%30.2)</v>
+      </c>
+      <c r="E24" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>86,695 (%34.6)</v>
+      </c>
+      <c r="O24" s="11">
+        <v>93919</v>
+      </c>
+      <c r="P24" s="11">
+        <v>7224</v>
+      </c>
+      <c r="Q24" s="11">
+        <v>86695</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q25" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="C25" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>69,210 (%25.3)</v>
+      </c>
+      <c r="D25" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>7,833 (%32.8)</v>
+      </c>
+      <c r="E25" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>61,377 (%24.5)</v>
+      </c>
+      <c r="O25" s="11">
+        <v>69210</v>
+      </c>
+      <c r="P25" s="11">
+        <v>7833</v>
+      </c>
+      <c r="Q25" s="11">
+        <v>61377</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="Q26" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>20</v>
+      <c r="A26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>34,322 (%12.5)</v>
+      </c>
+      <c r="D26" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>5,012 (%21.0)</v>
+      </c>
+      <c r="E26" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>29,310 (%11.7)</v>
+      </c>
+      <c r="O26" s="11">
+        <v>34322</v>
+      </c>
+      <c r="P26" s="11">
+        <v>5012</v>
+      </c>
+      <c r="Q26" s="11">
+        <v>29310</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q28" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="C28" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>20,479 (%7.5)</v>
+      </c>
+      <c r="D28" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>3,113 (%13.0)</v>
+      </c>
+      <c r="E28" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>17,366 (%6.9)</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="O28" s="11">
+        <v>20479</v>
+      </c>
+      <c r="P28" s="11">
+        <v>3113</v>
+      </c>
+      <c r="Q28" s="11">
+        <v>17366</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q29" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="C29" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>76,983 (%28.1)</v>
+      </c>
+      <c r="D29" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>7,938 (%33.2)</v>
+      </c>
+      <c r="E29" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>69,045 (%27.6)</v>
+      </c>
+      <c r="O29" s="11">
+        <v>76983</v>
+      </c>
+      <c r="P29" s="11">
+        <v>7938</v>
+      </c>
+      <c r="Q29" s="11">
+        <v>69045</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q30" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="C30" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>74,353 (%27.2)</v>
+      </c>
+      <c r="D30" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>6,646 (%27.8)</v>
+      </c>
+      <c r="E30" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>67,707 (%27.0)</v>
+      </c>
+      <c r="O30" s="11">
+        <v>74353</v>
+      </c>
+      <c r="P30" s="11">
+        <v>6646</v>
+      </c>
+      <c r="Q30" s="11">
+        <v>67707</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>101,906 (%37.2)</v>
+      </c>
+      <c r="D31" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>6,164 (%25.8)</v>
+      </c>
+      <c r="E31" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>95,742 (%38.2)</v>
+      </c>
+      <c r="O31" s="11">
+        <v>101906</v>
+      </c>
+      <c r="P31" s="11">
+        <v>6164</v>
+      </c>
+      <c r="Q31" s="11">
+        <v>95742</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q32" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q33" s="4" t="s">
-        <v>21</v>
+        <v>38</v>
+      </c>
+      <c r="C32" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>588 (%0.2)</v>
+      </c>
+      <c r="D32" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>51 (%0.2)</v>
+      </c>
+      <c r="E32" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>537 (%0.2)</v>
+      </c>
+      <c r="O32" s="11">
+        <v>588</v>
+      </c>
+      <c r="P32" s="11">
+        <v>51</v>
+      </c>
+      <c r="Q32" s="11">
+        <v>537</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q34" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="C34" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>22,462 (%8.2)</v>
+      </c>
+      <c r="D34" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>3,261 (%13.6)</v>
+      </c>
+      <c r="E34" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>19,201 (%7.7)</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="O34" s="11">
+        <v>22462</v>
+      </c>
+      <c r="P34" s="11">
+        <v>3261</v>
+      </c>
+      <c r="Q34" s="11">
+        <v>19201</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q35" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="C35" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>37,420 (%13.7)</v>
+      </c>
+      <c r="D35" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>4,783 (%20.0)</v>
+      </c>
+      <c r="E35" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>32,637 (%13.0)</v>
+      </c>
+      <c r="O35" s="11">
+        <v>37420</v>
+      </c>
+      <c r="P35" s="11">
+        <v>4783</v>
+      </c>
+      <c r="Q35" s="11">
+        <v>32637</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
+      </c>
+      <c r="C36" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>24,667 (%9.0)</v>
+      </c>
+      <c r="D36" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>2,535 (%10.6)</v>
+      </c>
+      <c r="E36" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>22,132 (%8.8)</v>
+      </c>
+      <c r="O36" s="11">
+        <v>24667</v>
+      </c>
+      <c r="P36" s="11">
+        <v>2535</v>
+      </c>
+      <c r="Q36" s="11">
+        <v>22132</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="Q37" s="4" t="s">
-        <v>24</v>
+      <c r="A37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>32,136 (%11.7)</v>
+      </c>
+      <c r="D37" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>2,905 (%12.1)</v>
+      </c>
+      <c r="E37" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>29,231 (%11.7)</v>
+      </c>
+      <c r="O37" s="11">
+        <v>32136</v>
+      </c>
+      <c r="P37" s="11">
+        <v>2905</v>
+      </c>
+      <c r="Q37" s="11">
+        <v>29231</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q38" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="C38" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>108,829 (%39.7)</v>
+      </c>
+      <c r="D38" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>6,124 (%25.6)</v>
+      </c>
+      <c r="E38" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>102,705 (%41.0)</v>
+      </c>
+      <c r="O38" s="11">
+        <v>108829</v>
+      </c>
+      <c r="P38" s="11">
+        <v>6124</v>
+      </c>
+      <c r="Q38" s="11">
+        <v>102705</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q39" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="Q40" s="4" t="s">
-        <v>27</v>
+        <v>38</v>
+      </c>
+      <c r="C39" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>48,795 (%17.8)</v>
+      </c>
+      <c r="D39" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>4,304 (%18.0)</v>
+      </c>
+      <c r="E39" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>44,491 (%17.8)</v>
+      </c>
+      <c r="O39" s="11">
+        <v>48795</v>
+      </c>
+      <c r="P39" s="11">
+        <v>4304</v>
+      </c>
+      <c r="Q39" s="11">
+        <v>44491</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q41" s="4" t="s">
-        <v>28</v>
+        <v>21</v>
+      </c>
+      <c r="C41" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>188,913 (%69.0)</v>
+      </c>
+      <c r="D41" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>13,012 (%54.4)</v>
+      </c>
+      <c r="E41" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>175,901 (%70.2)</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="O41" s="11">
+        <v>188913</v>
+      </c>
+      <c r="P41" s="11">
+        <v>13012</v>
+      </c>
+      <c r="Q41" s="11">
+        <v>175901</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
+      </c>
+      <c r="C42" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>82,528 (%30.1)</v>
+      </c>
+      <c r="D42" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>10,514 (%44.0)</v>
+      </c>
+      <c r="E42" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>72,014 (%28.8)</v>
+      </c>
+      <c r="O42" s="11">
+        <v>82528</v>
+      </c>
+      <c r="P42" s="11">
+        <v>10514</v>
+      </c>
+      <c r="Q42" s="11">
+        <v>72014</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="Q43" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q44" s="4" t="s">
-        <v>30</v>
+      <c r="A43" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>2,868 (%1.0)</v>
+      </c>
+      <c r="D43" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>386 (%1.6)</v>
+      </c>
+      <c r="E43" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>2,482 (%1.0)</v>
+      </c>
+      <c r="O43" s="11">
+        <v>2868</v>
+      </c>
+      <c r="P43" s="11">
+        <v>386</v>
+      </c>
+      <c r="Q43" s="11">
+        <v>2482</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
+      </c>
+      <c r="C45" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>221,625 (%80.9)</v>
+      </c>
+      <c r="D45" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>15,310 (%64.0)</v>
+      </c>
+      <c r="E45" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>206,315 (%82.4)</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="O45" s="11">
+        <v>221625</v>
+      </c>
+      <c r="P45" s="11">
+        <v>15310</v>
+      </c>
+      <c r="Q45" s="11">
+        <v>206315</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="Q46" s="4" t="s">
-        <v>31</v>
+      <c r="A46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>52,328 (%19.1)</v>
+      </c>
+      <c r="D46" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>8,552 (%35.8)</v>
+      </c>
+      <c r="E46" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>43,776 (%17.5)</v>
+      </c>
+      <c r="O46" s="11">
+        <v>52328</v>
+      </c>
+      <c r="P46" s="11">
+        <v>8552</v>
+      </c>
+      <c r="Q46" s="11">
+        <v>43776</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q47" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="C47" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>356 (%0.1)</v>
+      </c>
+      <c r="D47" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>50 (%0.2)</v>
+      </c>
+      <c r="E47" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>306 (%0.1)</v>
+      </c>
+      <c r="O47" s="11">
+        <v>356</v>
+      </c>
+      <c r="P47" s="11">
+        <v>50</v>
+      </c>
+      <c r="Q47" s="11">
+        <v>306</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q49" s="4" t="s">
-        <v>33</v>
+        <v>25</v>
+      </c>
+      <c r="C49" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>221,625 (%80.9)</v>
+      </c>
+      <c r="D49" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>9,548 (%39.9)</v>
+      </c>
+      <c r="E49" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>68,480 (%27.3)</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="O49" s="11">
+        <v>221625</v>
+      </c>
+      <c r="P49" s="11">
+        <v>9548</v>
+      </c>
+      <c r="Q49" s="11">
+        <v>68480</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="Q50" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="Q52" s="4" t="s">
-        <v>35</v>
+      <c r="A50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>52,328 (%19.1)</v>
+      </c>
+      <c r="D50" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>14,301 (%59.8)</v>
+      </c>
+      <c r="E50" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>181,519 (%72.5)</v>
+      </c>
+      <c r="O50" s="11">
+        <v>52328</v>
+      </c>
+      <c r="P50" s="11">
+        <v>14301</v>
+      </c>
+      <c r="Q50" s="11">
+        <v>181519</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>356 (%0.1)</v>
+      </c>
+      <c r="D51" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>63 (%0.3)</v>
+      </c>
+      <c r="E51" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>398 (%0.2)</v>
+      </c>
+      <c r="O51" s="11">
+        <v>356</v>
+      </c>
+      <c r="P51" s="11">
+        <v>63</v>
+      </c>
+      <c r="Q51" s="11">
+        <v>398</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="Q53" s="4" t="s">
-        <v>36</v>
+      <c r="A53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>3,918 (%1.4)</v>
+      </c>
+      <c r="D53" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>413 (%1.7)</v>
+      </c>
+      <c r="E53" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>3,505 (%1.4)</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="O53" s="11">
+        <v>3918</v>
+      </c>
+      <c r="P53" s="11">
+        <v>413</v>
+      </c>
+      <c r="Q53" s="11">
+        <v>3505</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="Q54" s="4" t="s">
-        <v>37</v>
+      <c r="A54" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>73,615 (%26.9)</v>
+      </c>
+      <c r="D54" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>5,286 (%22.1)</v>
+      </c>
+      <c r="E54" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>68,329 (%27.3)</v>
+      </c>
+      <c r="O54" s="11">
+        <v>73615</v>
+      </c>
+      <c r="P54" s="11">
+        <v>5286</v>
+      </c>
+      <c r="Q54" s="11">
+        <v>68329</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>96,097 (%35.1)</v>
+      </c>
+      <c r="D55" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>8,444 (%35.3)</v>
+      </c>
+      <c r="E55" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>87,653 (%35.0)</v>
+      </c>
+      <c r="O55" s="11">
+        <v>96097</v>
+      </c>
+      <c r="P55" s="11">
+        <v>8444</v>
+      </c>
+      <c r="Q55" s="11">
+        <v>87653</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>82,631 (%30.2)</v>
+      </c>
+      <c r="D56" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>8,590 (%35.9)</v>
+      </c>
+      <c r="E56" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>74,041 (%29.6)</v>
+      </c>
+      <c r="O56" s="11">
+        <v>82631</v>
+      </c>
+      <c r="P56" s="11">
+        <v>8590</v>
+      </c>
+      <c r="Q56" s="11">
+        <v>74041</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O57" s="11">
+        <v>18048</v>
+      </c>
+      <c r="P57" s="11">
+        <v>1179</v>
+      </c>
+      <c r="Q57" s="11">
+        <v>16869</v>
       </c>
     </row>
   </sheetData>
